--- a/ProjectFiles/Documentation/Project2-SystemOverview.xlsx
+++ b/ProjectFiles/Documentation/Project2-SystemOverview.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EvolveU\Project2\POS\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EvolveU\Project2\POS\ProjectFiles\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F13C39-642A-49CC-B795-870CA1E106F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0DD199-9848-42A4-828B-85DCE0B491BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -1713,7 +1713,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- active</a:t>
+            <a:t>- status</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3621,6 +3621,110 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>581026</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="TextBox 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC09FBDC-84AE-4E8D-83FC-D680C2907F7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9115426" y="4914900"/>
+          <a:ext cx="2495550" cy="1409700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>Note:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+            <a:t>  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+            <a:t>- For Order - Status</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+            <a:t>- Created</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+            <a:t>- Filled</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+            <a:t>- Shipped</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+            <a:t>- Completed</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3892,13 +3996,14 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="AD28" sqref="AD28"/>
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/ProjectFiles/Documentation/Project2-SystemOverview.xlsx
+++ b/ProjectFiles/Documentation/Project2-SystemOverview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EvolveU\Project2\POS\ProjectFiles\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0DD199-9848-42A4-828B-85DCE0B491BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24BEA358-06AE-4D6B-9291-14E7095061B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2488,7 +2488,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-CA" sz="1100" baseline="0"/>
-            <a:t>- levelId</a:t>
+            <a:t>- UserLevel</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3995,7 +3995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G10" workbookViewId="0">
       <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>

--- a/ProjectFiles/Documentation/Project2-SystemOverview.xlsx
+++ b/ProjectFiles/Documentation/Project2-SystemOverview.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EvolveU\Project2\POS\ProjectFiles\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24BEA358-06AE-4D6B-9291-14E7095061B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09105447-EE9E-46F2-9A62-EF23825D0E8E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
     <sheet name="Tables" sheetId="2" r:id="rId2"/>
+    <sheet name="Scope" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,6 +24,107 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+  <si>
+    <t>Phase 1</t>
+  </si>
+  <si>
+    <t>Develop application lookup maintenance forms:</t>
+  </si>
+  <si>
+    <t>Develop application main forms:</t>
+  </si>
+  <si>
+    <t>User maintenance</t>
+  </si>
+  <si>
+    <t>User Level maintenance</t>
+  </si>
+  <si>
+    <t>Order Status maintenance</t>
+  </si>
+  <si>
+    <t>Product Category maintenance</t>
+  </si>
+  <si>
+    <t>Customer maintenance</t>
+  </si>
+  <si>
+    <t>Product maintenance</t>
+  </si>
+  <si>
+    <t>Supplier maintenance</t>
+  </si>
+  <si>
+    <t>Other tables</t>
+  </si>
+  <si>
+    <t>GST table - for now, embedded in Customer table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Develop </t>
+  </si>
+  <si>
+    <t>Order entry form</t>
+  </si>
+  <si>
+    <t>Login form</t>
+  </si>
+  <si>
+    <t>Inventory maintenance</t>
+  </si>
+  <si>
+    <t>Order processing form</t>
+  </si>
+  <si>
+    <t>Order processing backend</t>
+  </si>
+  <si>
+    <t>Phase 3</t>
+  </si>
+  <si>
+    <t>Develop remote order sync/upload to main database process</t>
+  </si>
+  <si>
+    <t>This might require additional columns in the main database, orders table, for keeping track of status of sync/upload</t>
+  </si>
+  <si>
+    <t>Develop data sync from main database to remote units</t>
+  </si>
+  <si>
+    <t>This process is for refreshing data in remote units.  Example, new customer created by admin in main database.</t>
+  </si>
+  <si>
+    <t>new products created by admin in main database.</t>
+  </si>
+  <si>
+    <t>and possibly other type of data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generate invoice paper </t>
+  </si>
+  <si>
+    <t>Generate order paper/pdf form</t>
+  </si>
+  <si>
+    <t>Develop functionality to send pdf order form to customer via email, from remote or backoffice</t>
+  </si>
+  <si>
+    <t>This form is for order fulfillment, shipping order</t>
+  </si>
+  <si>
+    <t>This will be responsible for updating inventory based on order once fulfilled</t>
+  </si>
+  <si>
+    <t>Generate order fulfillment checklist</t>
+  </si>
+  <si>
+    <t>This form is for updating product inventory as  products are received for top up.  Order count adjustment process, etc.</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -36,12 +138,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -56,8 +164,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3995,8 +4104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G10" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4017,4 +4126,170 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E579ABFE-F91A-4469-9534-1B8E0434E592}">
+  <dimension ref="B2:P36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T24" sqref="T24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>19</v>
+      </c>
+      <c r="J33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>21</v>
+      </c>
+      <c r="J34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="P35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="P36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ProjectFiles/Documentation/Project2-SystemOverview.xlsx
+++ b/ProjectFiles/Documentation/Project2-SystemOverview.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EvolveU\Project2\POS\ProjectFiles\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09105447-EE9E-46F2-9A62-EF23825D0E8E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F0D330-AAC6-44FA-8BD3-29716EF52396}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
     <sheet name="Tables" sheetId="2" r:id="rId2"/>
-    <sheet name="Scope" sheetId="3" r:id="rId3"/>
+    <sheet name="Scope &amp; Phase" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Phase 1</t>
   </si>
@@ -124,6 +124,9 @@
   <si>
     <t>This form is for updating product inventory as  products are received for top up.  Order count adjustment process, etc.</t>
   </si>
+  <si>
+    <t>Develop dashboard type screen for quick overview of what is happening in the system</t>
+  </si>
 </sst>
 </file>
 
@@ -138,7 +141,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -148,6 +151,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -164,9 +173,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -986,16 +996,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>154780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>452438</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>50005</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1010,8 +1020,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4343400" y="5048249"/>
-          <a:ext cx="3495675" cy="2562225"/>
+          <a:off x="10934700" y="2440780"/>
+          <a:ext cx="3483769" cy="2562225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1281,1592 +1291,6 @@
             <a:rPr lang="en-CA" sz="1100" baseline="0"/>
             <a:t> Customer, Inventory data to Remote Sync/Transfer</a:t>
           </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="TextBox 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B7699CA-EE9A-472C-880C-710D7145DD4B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10506075" y="723900"/>
-          <a:ext cx="1390650" cy="2381250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" b="1"/>
-            <a:t>Customer</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- id</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- name</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- address1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- address2</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>-</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
-            <a:t> city</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
-            <a:t>- province</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- postalCode</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- phoneNumber</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- contactPerson</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- active</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- dateAdded</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- lastUpdateDate</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="TextBox 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54F050F2-9F1C-40F3-8EF4-564EA87A0A2F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15525750" y="733425"/>
-          <a:ext cx="1409700" cy="1819275"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" b="1"/>
-            <a:t>Product</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- id</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- name</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- description</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- productCategoryId</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- unitPrice</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- supplierId</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- active</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- dateAdded</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- last</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
-            <a:t>UpdateDate</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-CA" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="TextBox 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FD5B5DF-CB8C-4F5B-BAF1-1F96B1080AB6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18630900" y="752475"/>
-          <a:ext cx="1314450" cy="2562225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" b="1"/>
-            <a:t>Product Supplier</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- id</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- companyName</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- address1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- address</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
-            <a:t>2</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
-            <a:t>- city</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
-            <a:t>- province</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
-            <a:t>- postalCode</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
-            <a:t>- phoneNumber</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
-            <a:t>- contactPerson</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- contact</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
-            <a:t>Person</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-CA" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- active</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- dateAdded</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- last</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
-            <a:t>UpdateDate</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-CA" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="TextBox 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE04FF98-78FF-40DB-924F-E706C818E546}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12496800" y="742950"/>
-          <a:ext cx="1314450" cy="1819275"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" b="1"/>
-            <a:t>Order</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- id</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- customerId</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- orderDate</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- comment</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- salesPersonId</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- status</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- fulfilled</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- dateAdded</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- last</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
-            <a:t>UpdateDate</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-CA" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="TextBox 46">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{911A8C56-8F25-47C5-A564-99275B529C8C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14077950" y="752476"/>
-          <a:ext cx="1314450" cy="1562100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" b="1"/>
-            <a:t>Order Detail</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- id</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- orderId</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- productId</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- quantity</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- active</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- dateAdded</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- last</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
-            <a:t>UpdateDate</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-CA" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="TextBox 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62D5380C-AAA8-4772-BCEB-E496D4CFEBA0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12325350" y="3409951"/>
-          <a:ext cx="1457325" cy="1562100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" b="1"/>
-            <a:t>Inventory</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- id</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- productId</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- quantityOn</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
-            <a:t>Hand</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
-            <a:t>- quantityTreshold</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-CA" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- active</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- date_Added</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- last</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
-            <a:t>UpdateDate</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-CA" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="TextBox 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3ECB141-15AF-4B26-9DF9-EDC4FA6D6627}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17687925" y="5895975"/>
-          <a:ext cx="1314450" cy="2657475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" b="1"/>
-            <a:t>System Configuration</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- id</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- deviceId</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- companyName</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- address1</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-CA" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
-            <a:t>- address2</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- city</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- province</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- postalCode</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- phoneNumber</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- active</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- dateAdded</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- last</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
-            <a:t>UpdateDate</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-CA" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="TextBox 51">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B4DE5FD-52CA-4199-9287-80C2BA2B98A4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17106900" y="742950"/>
-          <a:ext cx="1314450" cy="1819275"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" b="1"/>
-            <a:t>Product Category</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- id</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- name</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- description</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- active</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- dateAdded</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- last</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
-            <a:t>UpdateDate</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-CA" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="TextBox 56">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19BEEE00-8848-4DC0-ADB4-6092BAE2EE13}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13963650" y="3419475"/>
-          <a:ext cx="1428750" cy="2200275"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" b="1"/>
-            <a:t>Inventory Transaction</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- id</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- transction</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
-            <a:t>Type</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>Id</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- order</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
-            <a:t>ID</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-CA" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- quantityOnHand</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-CA" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
-            <a:t>- quantityAdded</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
-            <a:t>- quantityTaken</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-CA" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- active</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- userId</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- dateAdded</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- last</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
-            <a:t>UpdateDate</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-CA" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="TextBox 57">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF45356E-C1AD-4FD9-A906-CC3BFCF0C0E7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14668500" y="5867400"/>
-          <a:ext cx="1314450" cy="1847849"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" b="1"/>
-            <a:t>User Information</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- id</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- name</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- firstName</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- last</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
-            <a:t>Name</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
-            <a:t>- UserLevel</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
-            <a:t>- password</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-CA" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- active</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- dateAdded</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- last</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
-            <a:t>UpdateDate</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-CA" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="TextBox 58">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70B20C28-2751-4D32-B17A-B199E8B23A17}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16154400" y="5886450"/>
-          <a:ext cx="1314450" cy="1676400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" b="1"/>
-            <a:t>User</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" b="1" baseline="0"/>
-            <a:t> Level</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-CA" sz="1100" b="1"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- id</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- name</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- description</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>-</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
-            <a:t> authorityLevel</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-CA" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- active</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- dateAdded</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- last</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
-            <a:t>UpdateDate</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-CA" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="TextBox 62">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BEC5143-BB84-458D-B16D-FF7B86B8A033}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15659100" y="3448051"/>
-          <a:ext cx="1314450" cy="1562100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" b="1"/>
-            <a:t>Inventory Tracking Type</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- id</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- name</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- description</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- active</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- dateAdded</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>- last</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
-            <a:t>UpdateDate</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-CA" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3626,124 +2050,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>21431</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1760D11A-2F53-468D-8D09-92434383619B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="15" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="11896725" y="1238251"/>
-          <a:ext cx="609600" cy="676274"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0293418-EB1A-4253-A454-C06E2BE36079}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13744575" y="990600"/>
-          <a:ext cx="438150" cy="238125"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>581026</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>64294</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>97631</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3758,8 +2074,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9115426" y="4914900"/>
-          <a:ext cx="2495550" cy="1409700"/>
+          <a:off x="10939464" y="783431"/>
+          <a:ext cx="2483643" cy="1409700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3831,6 +2147,1708 @@
             <a:rPr lang="en-CA" sz="1100" baseline="0"/>
             <a:t>- Completed</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>83344</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>35719</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>250031</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>130969</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA8E9735-5357-4AED-85CD-B6DEF77CC29C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="83344" y="226219"/>
+          <a:ext cx="1381125" cy="2381250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" b="1"/>
+            <a:t>Customer</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- name</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- address1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- address2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+            <a:t> city</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+            <a:t>- province</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- postalCode</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- phoneNumber</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- contactPerson</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- active</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- dateAdded</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- lastUpdateDate</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>492917</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>45244</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>71436</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>150019</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFB14864-1A25-4D0F-BE84-919441FD2F3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1707355" y="235744"/>
+          <a:ext cx="1400175" cy="1819275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" b="1"/>
+            <a:t>Product</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- name</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- description</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- productCategoryId</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- unitPrice</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- supplierId</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- active</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- dateAdded</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- last</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+            <a:t>UpdateDate</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-CA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>514351</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>604837</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B853691-9CBB-4570-BB8A-81C7847DC887}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4764882" y="266700"/>
+          <a:ext cx="1304924" cy="2562225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" b="1"/>
+            <a:t>Product Supplier</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- companyName</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- address1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- address</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+            <a:t>- city</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+            <a:t>- province</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+            <a:t>- postalCode</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+            <a:t>- phoneNumber</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+            <a:t>- contactPerson</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- contact</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+            <a:t>Person</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-CA" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- active</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- dateAdded</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- last</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+            <a:t>UpdateDate</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-CA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>102394</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>16669</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{134C3EAF-85E8-41B4-AEAF-07300D4E1C7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="678656" y="2959894"/>
+          <a:ext cx="1304926" cy="1819275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" b="1"/>
+            <a:t>Order</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- customerId</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- orderDate</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- comment</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- salesPersonId</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- status</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- fulfilled</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- dateAdded</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- last</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+            <a:t>UpdateDate</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-CA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>402432</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>492919</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81AADFA4-87CB-4DAA-9B8B-64E3E36DA8B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2224088" y="2981326"/>
+          <a:ext cx="1304925" cy="1562100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" b="1"/>
+            <a:t>Order Detail</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- orderId</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- productId</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- quantity</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- active</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- dateAdded</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- last</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+            <a:t>UpdateDate</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-CA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>473869</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>126208</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>97632</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>164308</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08F5CAAF-C846-4F39-B46C-9F8C0581A9A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4117182" y="5269708"/>
+          <a:ext cx="1445419" cy="1562100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" b="1"/>
+            <a:t>Inventory</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- productId</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- quantityOn</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+            <a:t>Hand</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+            <a:t>- quantityTreshold</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-CA" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- active</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- date_Added</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- last</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+            <a:t>UpdateDate</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-CA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>138112</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>64294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>54769</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE1E5349-5F01-4C5A-BE95-E237653A5D04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9246393" y="254794"/>
+          <a:ext cx="1304925" cy="2657475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" b="1"/>
+            <a:t>System Configuration</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- deviceId</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- companyName</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- address1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-CA" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+            <a:t>- address2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- city</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- province</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- postalCode</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- phoneNumber</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- active</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- dateAdded</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- last</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+            <a:t>UpdateDate</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-CA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>264319</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>354807</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{344EEB22-3C4D-4B28-8942-EDC715485AF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3300413" y="233362"/>
+          <a:ext cx="1304925" cy="1819275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" b="1"/>
+            <a:t>Product Category</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- name</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- description</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- active</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- dateAdded</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- last</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+            <a:t>UpdateDate</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-CA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>528639</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>14288</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1F424DB-688D-4D5E-9DA0-2F1DA63B86E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2350295" y="5243513"/>
+          <a:ext cx="1416843" cy="2200275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" b="1"/>
+            <a:t>Inventory Transaction</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- transction</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+            <a:t>Type</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>Id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- order</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-CA" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- quantityOnHand</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-CA" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+            <a:t>- quantityAdded</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+            <a:t>- quantityTaken</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-CA" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- active</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- userId</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- dateAdded</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- last</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+            <a:t>UpdateDate</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-CA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>166688</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>83344</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>257176</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>26193</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{394EB7B1-D52B-4047-9A0F-6AA6FA971DED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6238876" y="273844"/>
+          <a:ext cx="1304925" cy="1847849"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" b="1"/>
+            <a:t>User Information</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- name</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- firstName</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- last</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+            <a:t>Name</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+            <a:t>- UserLevel</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+            <a:t>- password</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-CA" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- active</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- dateAdded</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- last</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+            <a:t>UpdateDate</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-CA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>450057</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>540543</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextBox 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{378D790F-D60F-4AA2-BCE6-B38A826066D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7736682" y="257175"/>
+          <a:ext cx="1304924" cy="1676400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" b="1"/>
+            <a:t>User</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" b="1" baseline="0"/>
+            <a:t> Level</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-CA" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- name</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- description</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+            <a:t> authorityLevel</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-CA" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- active</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- dateAdded</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- last</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+            <a:t>UpdateDate</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-CA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>90488</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>116683</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>154783</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="TextBox 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB0E8E73-BC4E-4C13-AC01-2A51D4DA0A27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="697707" y="5260183"/>
+          <a:ext cx="1304925" cy="1562100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" b="1"/>
+            <a:t>Inventory Tracking Type</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- name</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- description</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- active</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- dateAdded</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- last</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+            <a:t>UpdateDate</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-CA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>261937</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>178594</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>26194</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="TextBox 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0810D39B-73F1-43B8-A4C8-1A3DEB543D24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3905250" y="3036094"/>
+          <a:ext cx="1304925" cy="1562100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" b="1"/>
+            <a:t>Order Status</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- name</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- description</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- active</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- dateAdded</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- last</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+            <a:t>UpdateDate</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-CA" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4104,8 +4122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="V31" sqref="V31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4120,26 +4138,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF57643A-8FEF-44A7-865F-7F3D4CBBAD5B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="T27" sqref="T27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E579ABFE-F91A-4469-9534-1B8E0434E592}">
-  <dimension ref="B2:P36"/>
+  <dimension ref="B2:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T24" sqref="T24"/>
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -4200,7 +4221,7 @@
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -4254,7 +4275,7 @@
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4289,6 +4310,11 @@
         <v>24</v>
       </c>
     </row>
+    <row r="38" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ProjectFiles/Documentation/Project2-SystemOverview.xlsx
+++ b/ProjectFiles/Documentation/Project2-SystemOverview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EvolveU\Project2\POS\ProjectFiles\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F0D330-AAC6-44FA-8BD3-29716EF52396}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598D0301-D3E5-4C19-8FA4-C1366FB718BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Phase 1</t>
   </si>
@@ -127,15 +127,34 @@
   <si>
     <t>Develop dashboard type screen for quick overview of what is happening in the system</t>
   </si>
+  <si>
+    <t>Phase 2</t>
+  </si>
+  <si>
+    <t>Modernize application frontend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extra </t>
+  </si>
+  <si>
+    <t>Put something in the Home page????</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -173,10 +192,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4154,7 +4174,7 @@
   <dimension ref="B2:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4186,7 +4206,7 @@
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4216,13 +4236,21 @@
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>0</v>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -4232,22 +4260,22 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -4272,6 +4300,11 @@
       </c>
       <c r="H26" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -4317,5 +4350,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ProjectFiles/Documentation/Project2-SystemOverview.xlsx
+++ b/ProjectFiles/Documentation/Project2-SystemOverview.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EvolveU\Project2\POS\ProjectFiles\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598D0301-D3E5-4C19-8FA4-C1366FB718BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4CA879-AD78-48D5-B305-22D3BD6A6975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5250" yWindow="3195" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -4173,8 +4173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E579ABFE-F91A-4469-9534-1B8E0434E592}">
   <dimension ref="B2:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
